--- a/biology/Biologie cellulaire et moléculaire/Marqueur_génétique/Marqueur_génétique.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Marqueur_génétique/Marqueur_génétique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marqueur_g%C3%A9n%C3%A9tique</t>
+          <t>Marqueur_génétique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le marqueur génétique est un gène ou une séquence polymorphe d'ADN aisément détectable grâce à un emplacement connu sur un chromosome. On peut l'utiliser en cartographie génétique pour « baliser » le génome et identifier des individus ou des espèces. 
 Le marqueur génétique peut être décrit comme une variation (qui peut survenir en raison d'une mutation ou altération des loci génomiques) qui peut être observée. Un marqueur génétique peut être une séquence d'ADN courte, comme une séquence autour d'une seule paire de bases (single nucleotide polymorphism, SNP), ou de séquences répétées (VNTR), comme les minisatellites.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marqueur_g%C3%A9n%C3%A9tique</t>
+          <t>Marqueur_génétique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Types de marqueurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il existe différentes sortes de marqueurs : 
 RFLP, Polymorphisme de longueur des fragments de restriction,
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marqueur_g%C3%A9n%C3%A9tique</t>
+          <t>Marqueur_génétique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,9 +569,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Bretting et Widrlechner (1995), les conditions idéales d'un marqueur génétique sont les suivantes[1] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Bretting et Widrlechner (1995), les conditions idéales d'un marqueur génétique sont les suivantes : 
 être polymorphe, afin de pouvoir facilement différencier les individus ou les lignées ;
 être relativement « neutre », tant au niveau de la valeur du caractère étudié, que de la valeur sélective ;
 être codominant, pour distinguer les hétérozygotes des homozygotes ;
@@ -578,7 +594,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marqueur_g%C3%A9n%C3%A9tique</t>
+          <t>Marqueur_génétique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,12 +612,14 @@
           <t>Classification des marqueurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ils peuvent être classés en trois groupes selon qu'ils révèlent :
 la codominance ou l'allèle dominant
 le polymorphisme de séquence ou d'unités de répétitions
-un locus, une région particulière ou régions entières (profil génétique, cartes génétiques saturées)[2].</t>
+un locus, une région particulière ou régions entières (profil génétique, cartes génétiques saturées).</t>
         </is>
       </c>
     </row>
